--- a/llm4ad/task/optimization/bbob_test/test_restart_selection/results/test_restart_selection_result.xlsx
+++ b/llm4ad/task/optimization/bbob_test/test_restart_selection/results/test_restart_selection_result.xlsx
@@ -488,10 +488,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.667317345858582e-15</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.04187588254598e-14</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>41847.90322580645</v>
@@ -562,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.334634691717163e-15</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.839113200419745e-14</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>38816.06451612903</v>
@@ -576,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4.681330591988479e-11</v>
+        <v>1.283561071050504e-13</v>
       </c>
       <c r="C10" t="n">
-        <v>5.884624229212102e-11</v>
+        <v>3.874187092927045e-14</v>
       </c>
       <c r="D10" t="n">
         <v>223737.3870967742</v>
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1.100195203757574e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.416711860140416e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>48046.6129032258</v>
@@ -604,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>4.721671082792924e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>6.752869741596489e-15</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>56470.41935483871</v>
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>665.9433683281802</v>
+        <v>57.93418081353259</v>
       </c>
       <c r="C14" t="n">
-        <v>165.0421356521622</v>
+        <v>70.78101627976454</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>67.98224957661874</v>
+        <v>67.98224932010811</v>
       </c>
       <c r="C15" t="n">
-        <v>101.4554736907405</v>
+        <v>101.4554735040934</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -664,10 +664,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>5.482468755920529</v>
+        <v>5.482468755920526</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1767227558430442</v>
+        <v>0.1767227558430436</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -680,13 +680,15 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.760312326012119e-13</v>
+        <v>576.2806451612904</v>
       </c>
       <c r="C17" t="n">
-        <v>3.652618619992149e-13</v>
-      </c>
-      <c r="D17" t="n">
-        <v>93586.16129032258</v>
+        <v>228.4218194763874</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -694,13 +696,15 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>8.508176242391909e-13</v>
+        <v>592.4354838709694</v>
       </c>
       <c r="C18" t="n">
-        <v>2.271290560335796e-13</v>
-      </c>
-      <c r="D18" t="n">
-        <v>142269.064516129</v>
+        <v>118.3607016662404</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -708,13 +712,15 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3.285916341889289e-12</v>
+        <v>578.9774193548391</v>
       </c>
       <c r="C19" t="n">
-        <v>4.665258188659256e-12</v>
-      </c>
-      <c r="D19" t="n">
-        <v>136356.8709677419</v>
+        <v>201.6875648285032</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -722,10 +728,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>94.4904084809291</v>
+        <v>668.1569894057574</v>
       </c>
       <c r="C20" t="n">
-        <v>526.0936492927975</v>
+        <v>465.9210134290077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -738,10 +744,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.894079894729422e-08</v>
+        <v>2.893914223668323e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>1.611355490105734e-07</v>
+        <v>1.61126324836274e-07</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -770,10 +776,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>9.562227898595848</v>
+        <v>50.03662980865582</v>
       </c>
       <c r="C23" t="n">
-        <v>16.64672300676983</v>
+        <v>0.2039093324609735</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -786,10 +792,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>5.362993203649943e-12</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.143631565603143e-12</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>95956.45161290323</v>
@@ -800,10 +806,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>20.71931514280652</v>
+        <v>21.06711826450215</v>
       </c>
       <c r="C25" t="n">
-        <v>7.512471697324576</v>
+        <v>8.43975414621845</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
